--- a/关键路径表.xlsx
+++ b/关键路径表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="107">
   <si>
     <t>里程碑编号</t>
   </si>
@@ -116,6 +116,9 @@
     <t>34</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -333,6 +336,9 @@
   </si>
   <si>
     <t>late</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>60</t>
@@ -978,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +995,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:BO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1686,23 +1695,23 @@
       <c r="AX1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
     </row>
     <row r="2" spans="1:67">
       <c r="A2" s="2" t="s">
@@ -1727,155 +1736,155 @@
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="AQ2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
     </row>
     <row r="3" spans="1:67">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1899,183 +1908,183 @@
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="U3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AO3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
     </row>
     <row r="4" customFormat="1"/>
     <row r="5" spans="1:67">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="3">
         <v>4.3</v>
@@ -2105,25 +2114,25 @@
         <v>4.11</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB5" s="2">
         <v>5.1</v>
@@ -2170,7 +2179,7 @@
       <c r="AP5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AR5" s="2" t="s">
@@ -2210,34 +2219,34 @@
         <v>19</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BJ5" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BM5" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BN5" s="3" t="s">
         <v>20</v>
@@ -2248,7 +2257,7 @@
     </row>
     <row r="6" spans="1:67">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2272,186 +2281,186 @@
         <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="AB6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="AK6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV6" s="2" t="s">
+      <c r="BG6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AW6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="BM6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:67">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2469,7 +2478,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>28</v>
@@ -2478,185 +2487,185 @@
         <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="BK7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B5:BO7 C1:AX1 B2:AX3" numberStoredAsText="1"/>
+    <ignoredError sqref="B7:BO7 B2:AX3 C1:AX1 B5:BO5 B6:H6 J6:BO6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>